--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\AVMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E2386-ABE2-4A8F-9CE3-0B5B103FA882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B02B89-5B00-437F-B4D6-CD7E0C539F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1324,11 +1324,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1338,7 +1336,6 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3181,13 +3178,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73.1796875" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3219,7 +3216,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3244,7 +3241,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3274,7 +3271,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3304,7 +3301,7 @@
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3334,7 +3331,7 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3364,7 +3361,7 @@
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3389,7 +3386,7 @@
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3419,7 +3416,7 @@
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3449,7 +3446,7 @@
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3479,7 +3476,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3571,20 +3568,20 @@
       <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:14" s="27" customFormat="1" ht="43.5">
-      <c r="L1" s="27" t="s">
+    <row r="1" spans="11:14" s="24" customFormat="1" ht="45">
+      <c r="L1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="24" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3650,19 +3647,19 @@
       <selection activeCell="A17" sqref="A17:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -3688,7 +3685,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3716,17 +3713,17 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3734,14 +3731,14 @@
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>15000</v>
       </c>
       <c r="C18" t="s">
@@ -3755,7 +3752,7 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <f>6500+100*1062*3/28</f>
         <v>17878.571428571428</v>
       </c>
@@ -3770,14 +3767,14 @@
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>0.28000000000000003</v>
       </c>
       <c r="C22" t="s">
@@ -3791,7 +3788,7 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>0.22</v>
       </c>
       <c r="C23" t="s">
@@ -3811,7 +3808,7 @@
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3819,7 +3816,7 @@
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <f>$B$24*B22</f>
         <v>2595.6000000000004</v>
       </c>
@@ -3831,7 +3828,7 @@
       <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <f>$B$24*B23</f>
         <v>2039.4</v>
       </c>
@@ -3843,7 +3840,7 @@
       <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <f>B25*About!$A$77</f>
         <v>2482.986689554888</v>
       </c>
@@ -3855,7 +3852,7 @@
       <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <f>B26*About!$A$77</f>
         <v>1950.9181132216977</v>
       </c>
@@ -3864,20 +3861,20 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="12"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>590</v>
       </c>
       <c r="C31" t="s">
@@ -3888,7 +3885,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <f>B31*About!$A$78</f>
         <v>552.6291612271541</v>
       </c>
@@ -3897,7 +3894,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="B33" s="18">
+      <c r="B33">
         <v>11.3</v>
       </c>
       <c r="C33" t="s">
@@ -3908,7 +3905,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="B34" s="18">
+      <c r="B34">
         <v>365</v>
       </c>
       <c r="C34" t="s">
@@ -3916,7 +3913,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <f>B32*B33*B34</f>
         <v>2279318.9754813975</v>
       </c>
@@ -3925,32 +3922,32 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="B36" s="16"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>14.36</v>
       </c>
       <c r="C40" t="s">
@@ -3964,7 +3961,7 @@
       <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>10.49</v>
       </c>
       <c r="C41" t="s">
@@ -3975,13 +3972,13 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="16"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="20">
         <f>AVERAGE(21.4,22.7,23.1,25.8,31.2)</f>
         <v>24.839999999999996</v>
       </c>
@@ -3996,7 +3993,7 @@
       <c r="A44" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44">
         <f>24*365</f>
         <v>8760</v>
       </c>
@@ -4017,13 +4014,13 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="B46" s="16"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="14">
         <f>B40*B45</f>
         <v>3124713.0239999993</v>
       </c>
@@ -4035,7 +4032,7 @@
       <c r="A48" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="14">
         <f>B41*B45</f>
         <v>2282607.2159999995</v>
       </c>
@@ -4047,7 +4044,7 @@
       <c r="A49" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="14">
         <f>B47*About!$A$79</f>
         <v>3332119.6733545554</v>
       </c>
@@ -4059,7 +4056,7 @@
       <c r="A50" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="14">
         <f>B48*About!$A$79</f>
         <v>2434118.0622207024</v>
       </c>
@@ -4068,23 +4065,23 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="B51" s="16"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="12"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="11"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="14">
         <v>1000</v>
       </c>
       <c r="C54" t="s">
@@ -4092,7 +4089,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="B55" s="16">
+      <c r="B55" s="14">
         <f>B54*About!A76</f>
         <v>914.32735845675347</v>
       </c>
@@ -4104,44 +4101,44 @@
       <c r="A56" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="12"/>
+      <c r="B56" s="10"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="10"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
@@ -4152,7 +4149,7 @@
       <c r="A65" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="14">
         <v>1695890</v>
       </c>
       <c r="C65" t="s">
@@ -4165,17 +4162,17 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4183,7 +4180,7 @@
       <c r="A71" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="21">
         <v>0.1</v>
       </c>
       <c r="C71" t="s">
@@ -4191,16 +4188,16 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="8">
         <v>30000</v>
       </c>
       <c r="C72" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4208,7 +4205,7 @@
       <c r="A73" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="8">
         <f>B71*B72</f>
         <v>3000</v>
       </c>
@@ -4217,11 +4214,11 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" s="1" t="s">
@@ -4235,11 +4232,11 @@
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="16">
         <f>LDVs!M2</f>
         <v>1146.6070044711444</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="16">
         <f>LDVs!M4</f>
         <v>692.50522052217627</v>
       </c>
@@ -4248,11 +4245,11 @@
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="19">
+      <c r="B81" s="16">
         <f>B27</f>
         <v>2482.986689554888</v>
       </c>
-      <c r="C81" s="19">
+      <c r="C81" s="16">
         <f>B28</f>
         <v>1950.9181132216977</v>
       </c>
@@ -4261,7 +4258,7 @@
       <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="19">
+      <c r="B82" s="16">
         <f>B35</f>
         <v>2279318.9754813975</v>
       </c>
@@ -4274,11 +4271,11 @@
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="16">
         <f>B49</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="16">
         <f>B50</f>
         <v>2434118.0622207024</v>
       </c>
@@ -4287,7 +4284,7 @@
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B84" s="16">
         <f>B73</f>
         <v>3000</v>
       </c>
@@ -4300,21 +4297,21 @@
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="16">
         <f>B55</f>
         <v>914.32735845675347</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="17">
         <f>B85*(C80/B80)</f>
         <v>552.21751352338572</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
     </row>
     <row r="88" spans="1:3">
       <c r="B88" s="1" t="s">
@@ -4328,11 +4325,11 @@
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="16">
         <f>LDVs!N2</f>
         <v>1000.4265479134275</v>
       </c>
-      <c r="C89" s="19">
+      <c r="C89" s="16">
         <f>LDVs!N4</f>
         <v>604.21801408632746</v>
       </c>
@@ -4341,11 +4338,11 @@
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="16">
         <f>B18</f>
         <v>15000</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="17">
         <f>B90*(C81/B81)</f>
         <v>11785.714285714286</v>
       </c>
@@ -4354,7 +4351,7 @@
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="19">
+      <c r="B91" s="16">
         <f>B82</f>
         <v>2279318.9754813975</v>
       </c>
@@ -4367,11 +4364,11 @@
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="19">
+      <c r="B92" s="16">
         <f>B49</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C92" s="16">
         <f>B50</f>
         <v>2434118.0622207024</v>
       </c>
@@ -4380,7 +4377,7 @@
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="16">
         <f>B65</f>
         <v>1695890</v>
       </c>
@@ -4421,9 +4418,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -5167,13 +5164,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:33" ht="30">
+      <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B1" s="1">
@@ -6086,18 +6083,18 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -6192,7 +6189,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>0</v>
       </c>
       <c r="C4" s="5">
@@ -6215,7 +6212,7 @@
         <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6256,7 +6253,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>0</v>
       </c>
       <c r="C6" s="5">
@@ -6279,7 +6276,7 @@
         <f>'Cost Data'!$B84</f>
         <v>3000</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6315,10 +6312,6 @@
         <f>'Cost Data'!$C85</f>
         <v>552.21751352338572</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="5"/>
@@ -6339,24 +6332,24 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -6385,31 +6378,31 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>LDVs!N4</f>
         <v>604.21801408632746</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <f>LDVs!$N$2</f>
         <v>1000.4265479134275</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>LDVs!$N$2</f>
         <v>1000.4265479134275</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>LDVs!$N$2</f>
         <v>1000.4265479134275</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>LDVs!N3</f>
         <v>891.46920111097484</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>LDVs!$N$2</f>
         <v>1000.4265479134275</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>B2</f>
         <v>604.21801408632746</v>
       </c>
@@ -6418,31 +6411,31 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>'Cost Data'!B19</f>
         <v>17878.571428571428</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>'Cost Data'!$C90</f>
         <v>11785.714285714286</v>
       </c>
@@ -6451,30 +6444,30 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6482,31 +6475,31 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>'Cost Data'!$C92</f>
         <v>2434118.0622207024</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>'Cost Data'!$C92</f>
         <v>2434118.0622207024</v>
       </c>
@@ -6515,30 +6508,30 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6546,36 +6539,34 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25">
-        <v>0</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B7" s="22">
+        <f>B3</f>
+        <v>17878.571428571428</v>
+      </c>
+      <c r="C7" s="22">
+        <f t="shared" ref="C7:H7" si="0">C3</f>
+        <v>15000</v>
+      </c>
+      <c r="D7" s="22">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="0"/>
+        <v>11785.714285714286</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
